--- a/database/industries/kaghaz/chekapa/product/yearly_seprated.xlsx
+++ b/database/industries/kaghaz/chekapa/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kaghaz\chekapa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4EE9E6-B667-423C-89A2-E53060B46C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="52">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/08</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/08</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/08</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/08</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -60,19 +61,19 @@
     <t>تن</t>
   </si>
   <si>
+    <t>خمیر ویرجین</t>
+  </si>
+  <si>
+    <t>رول فلوتینگ</t>
+  </si>
+  <si>
+    <t>کاغذ رول سفید</t>
+  </si>
+  <si>
+    <t>کرافت لاینر</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>خمیر ویرجین</t>
-  </si>
-  <si>
-    <t>رول فلوتینگ</t>
-  </si>
-  <si>
-    <t>کاغذ رول سفید</t>
-  </si>
-  <si>
-    <t>کرافت لاینر</t>
   </si>
   <si>
     <t>خمیر مایع</t>
@@ -180,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,7 +368,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -379,7 +380,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -426,6 +427,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -461,6 +479,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,7 +647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -752,17 +787,17 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>13</v>
+      <c r="E11" s="11">
+        <v>203</v>
       </c>
       <c r="F11" s="11">
-        <v>203</v>
+        <v>1304</v>
       </c>
       <c r="G11" s="11">
-        <v>1304</v>
+        <v>508</v>
       </c>
       <c r="H11" s="11">
-        <v>508</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
@@ -770,98 +805,98 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>11778</v>
       </c>
       <c r="F12" s="13">
-        <v>11778</v>
+        <v>10067</v>
       </c>
       <c r="G12" s="13">
-        <v>10067</v>
+        <v>10090</v>
       </c>
       <c r="H12" s="13">
-        <v>10090</v>
+        <v>9291</v>
       </c>
       <c r="I12" s="13">
-        <v>9291</v>
+        <v>26378</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>13592</v>
       </c>
       <c r="F13" s="11">
-        <v>13592</v>
+        <v>19064</v>
       </c>
       <c r="G13" s="11">
-        <v>19064</v>
+        <v>23230</v>
       </c>
       <c r="H13" s="11">
-        <v>23230</v>
+        <v>20475</v>
       </c>
       <c r="I13" s="11">
-        <v>20475</v>
+        <v>23246</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="13">
+        <v>17804</v>
       </c>
       <c r="F14" s="13">
-        <v>17804</v>
+        <v>23988</v>
       </c>
       <c r="G14" s="13">
-        <v>23988</v>
+        <v>25186</v>
       </c>
       <c r="H14" s="13">
-        <v>25186</v>
+        <v>32924</v>
       </c>
       <c r="I14" s="13">
-        <v>32924</v>
+        <v>8851</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="H15" s="11">
+        <v>3958</v>
       </c>
       <c r="I15" s="11">
-        <v>3958</v>
+        <v>8852</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -873,16 +908,16 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F16" s="13">
+        <v>100</v>
       </c>
       <c r="G16" s="13">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H16" s="13">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
@@ -895,19 +930,19 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15">
-        <v>0</v>
+        <v>43377</v>
       </c>
       <c r="F17" s="15">
-        <v>43377</v>
+        <v>54523</v>
       </c>
       <c r="G17" s="15">
-        <v>54523</v>
+        <v>59414</v>
       </c>
       <c r="H17" s="15">
-        <v>59414</v>
+        <v>66648</v>
       </c>
       <c r="I17" s="15">
-        <v>66648</v>
+        <v>67327</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -930,8 +965,8 @@
         <v>12</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>13</v>
+      <c r="E19" s="11">
+        <v>0</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
@@ -942,80 +977,80 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
+      <c r="I19" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>13</v>
+      <c r="E20" s="13">
+        <v>29766</v>
       </c>
       <c r="F20" s="13">
-        <v>29766</v>
+        <v>5093</v>
       </c>
       <c r="G20" s="13">
-        <v>5093</v>
+        <v>1314</v>
       </c>
       <c r="H20" s="13">
-        <v>1314</v>
+        <v>2369</v>
       </c>
       <c r="I20" s="13">
-        <v>2369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>13</v>
+      <c r="E21" s="11">
+        <v>2023</v>
       </c>
       <c r="F21" s="11">
-        <v>2023</v>
+        <v>44</v>
       </c>
       <c r="G21" s="11">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="H21" s="11">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="I21" s="11">
-        <v>139</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
-        <v>13</v>
+      <c r="E22" s="13">
+        <v>24</v>
       </c>
       <c r="F22" s="13">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G22" s="13">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H22" s="13">
-        <v>92</v>
+        <v>1229</v>
       </c>
       <c r="I22" s="13">
-        <v>1229</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -1025,19 +1060,19 @@
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
-        <v>0</v>
+        <v>31813</v>
       </c>
       <c r="F23" s="15">
-        <v>31813</v>
+        <v>5137</v>
       </c>
       <c r="G23" s="15">
-        <v>5137</v>
+        <v>1629</v>
       </c>
       <c r="H23" s="15">
-        <v>1629</v>
+        <v>3737</v>
       </c>
       <c r="I23" s="15">
-        <v>3737</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -1060,8 +1095,8 @@
         <v>12</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
-        <v>13</v>
+      <c r="E25" s="11">
+        <v>0</v>
       </c>
       <c r="F25" s="11">
         <v>0</v>
@@ -1072,8 +1107,8 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-      <c r="I25" s="11">
-        <v>0</v>
+      <c r="I25" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -1106,8 +1141,8 @@
         <v>25</v>
       </c>
       <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
-        <v>13</v>
+      <c r="E27" s="15">
+        <v>0</v>
       </c>
       <c r="F27" s="15">
         <v>0</v>
@@ -1115,11 +1150,11 @@
       <c r="G27" s="15">
         <v>0</v>
       </c>
-      <c r="H27" s="15">
-        <v>0</v>
+      <c r="H27" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -1128,8 +1163,8 @@
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
-        <v>13</v>
+      <c r="E28" s="17">
+        <v>0</v>
       </c>
       <c r="F28" s="17">
         <v>0</v>
@@ -1151,19 +1186,19 @@
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
-        <v>0</v>
+        <v>75190</v>
       </c>
       <c r="F29" s="15">
-        <v>75190</v>
+        <v>59660</v>
       </c>
       <c r="G29" s="15">
-        <v>59660</v>
+        <v>61043</v>
       </c>
       <c r="H29" s="15">
-        <v>61043</v>
+        <v>70385</v>
       </c>
       <c r="I29" s="15">
-        <v>70385</v>
+        <v>68827</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -1248,17 +1283,17 @@
         <v>30</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>13</v>
+      <c r="E36" s="11">
+        <v>12634</v>
       </c>
       <c r="F36" s="11">
-        <v>12634</v>
+        <v>86263</v>
       </c>
       <c r="G36" s="11">
-        <v>86263</v>
+        <v>37553</v>
       </c>
       <c r="H36" s="11">
-        <v>37553</v>
+        <v>0</v>
       </c>
       <c r="I36" s="11">
         <v>0</v>
@@ -1266,98 +1301,98 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>13</v>
+      <c r="E37" s="13">
+        <v>437304</v>
       </c>
       <c r="F37" s="13">
-        <v>437304</v>
+        <v>778498</v>
       </c>
       <c r="G37" s="13">
-        <v>778498</v>
+        <v>863025</v>
       </c>
       <c r="H37" s="13">
-        <v>863025</v>
+        <v>830900</v>
       </c>
       <c r="I37" s="13">
-        <v>830900</v>
+        <v>6011096</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>13</v>
+      <c r="E38" s="11">
+        <v>351358</v>
       </c>
       <c r="F38" s="11">
-        <v>351358</v>
+        <v>774957</v>
       </c>
       <c r="G38" s="11">
-        <v>774957</v>
+        <v>1305417</v>
       </c>
       <c r="H38" s="11">
-        <v>1305417</v>
+        <v>2553490</v>
       </c>
       <c r="I38" s="11">
-        <v>2553490</v>
+        <v>3697804</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="13" t="s">
-        <v>13</v>
+      <c r="E39" s="13">
+        <v>693417</v>
       </c>
       <c r="F39" s="13">
-        <v>693417</v>
+        <v>2140624</v>
       </c>
       <c r="G39" s="13">
-        <v>2140624</v>
+        <v>2829012</v>
       </c>
       <c r="H39" s="13">
-        <v>2829012</v>
+        <v>5759553</v>
       </c>
       <c r="I39" s="13">
-        <v>5759553</v>
+        <v>2160922</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="H40" s="11">
+        <v>698683</v>
       </c>
       <c r="I40" s="11">
-        <v>698683</v>
+        <v>2141906</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -1369,16 +1404,16 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F41" s="13">
+        <v>6298</v>
       </c>
       <c r="G41" s="13">
-        <v>6298</v>
+        <v>22231</v>
       </c>
       <c r="H41" s="13">
-        <v>22231</v>
+        <v>0</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -1391,19 +1426,19 @@
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
-        <v>0</v>
+        <v>1494713</v>
       </c>
       <c r="F42" s="15">
-        <v>1494713</v>
+        <v>3786640</v>
       </c>
       <c r="G42" s="15">
-        <v>3786640</v>
+        <v>5057238</v>
       </c>
       <c r="H42" s="15">
-        <v>5057238</v>
+        <v>9842626</v>
       </c>
       <c r="I42" s="15">
-        <v>9842626</v>
+        <v>14011728</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -1426,8 +1461,8 @@
         <v>30</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>13</v>
+      <c r="E44" s="11">
+        <v>0</v>
       </c>
       <c r="F44" s="11">
         <v>0</v>
@@ -1438,80 +1473,80 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-      <c r="I44" s="11">
-        <v>0</v>
+      <c r="I44" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="13"/>
-      <c r="E45" s="13" t="s">
-        <v>13</v>
+      <c r="E45" s="13">
+        <v>1557092</v>
       </c>
       <c r="F45" s="13">
-        <v>1557092</v>
+        <v>363145</v>
       </c>
       <c r="G45" s="13">
-        <v>363145</v>
+        <v>120413</v>
       </c>
       <c r="H45" s="13">
-        <v>120413</v>
+        <v>358600</v>
       </c>
       <c r="I45" s="13">
-        <v>358600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>13</v>
+      <c r="E46" s="11">
+        <v>63719</v>
       </c>
       <c r="F46" s="11">
-        <v>63719</v>
+        <v>1863</v>
       </c>
       <c r="G46" s="11">
-        <v>1863</v>
+        <v>18403</v>
       </c>
       <c r="H46" s="11">
-        <v>18403</v>
+        <v>18457</v>
       </c>
       <c r="I46" s="11">
-        <v>18457</v>
+        <v>184522</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="13"/>
-      <c r="E47" s="13" t="s">
-        <v>13</v>
+      <c r="E47" s="13">
+        <v>2117</v>
       </c>
       <c r="F47" s="13">
-        <v>2117</v>
+        <v>0</v>
       </c>
       <c r="G47" s="13">
-        <v>0</v>
+        <v>13631</v>
       </c>
       <c r="H47" s="13">
-        <v>13631</v>
+        <v>189141</v>
       </c>
       <c r="I47" s="13">
-        <v>189141</v>
+        <v>69993</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
@@ -1521,19 +1556,19 @@
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
-        <v>0</v>
+        <v>1622928</v>
       </c>
       <c r="F48" s="15">
-        <v>1622928</v>
+        <v>365008</v>
       </c>
       <c r="G48" s="15">
-        <v>365008</v>
+        <v>152447</v>
       </c>
       <c r="H48" s="15">
-        <v>152447</v>
+        <v>566198</v>
       </c>
       <c r="I48" s="15">
-        <v>566198</v>
+        <v>254515</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -1556,8 +1591,8 @@
         <v>30</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>13</v>
+      <c r="E50" s="11">
+        <v>0</v>
       </c>
       <c r="F50" s="11">
         <v>0</v>
@@ -1568,8 +1603,8 @@
       <c r="H50" s="11">
         <v>0</v>
       </c>
-      <c r="I50" s="11">
-        <v>0</v>
+      <c r="I50" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -1602,8 +1637,8 @@
         <v>30</v>
       </c>
       <c r="D52" s="15"/>
-      <c r="E52" s="15" t="s">
-        <v>13</v>
+      <c r="E52" s="15">
+        <v>0</v>
       </c>
       <c r="F52" s="15">
         <v>0</v>
@@ -1611,11 +1646,11 @@
       <c r="G52" s="15">
         <v>0</v>
       </c>
-      <c r="H52" s="15">
-        <v>0</v>
+      <c r="H52" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -1626,8 +1661,8 @@
         <v>30</v>
       </c>
       <c r="D53" s="17"/>
-      <c r="E53" s="17" t="s">
-        <v>13</v>
+      <c r="E53" s="17">
+        <v>0</v>
       </c>
       <c r="F53" s="17">
         <v>0</v>
@@ -1649,19 +1684,19 @@
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
-        <v>0</v>
+        <v>3117641</v>
       </c>
       <c r="F54" s="15">
-        <v>3117641</v>
+        <v>4151648</v>
       </c>
       <c r="G54" s="15">
-        <v>4151648</v>
+        <v>5209685</v>
       </c>
       <c r="H54" s="15">
-        <v>5209685</v>
+        <v>10408824</v>
       </c>
       <c r="I54" s="15">
-        <v>10408824</v>
+        <v>14266243</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -1746,17 +1781,17 @@
         <v>35</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>13</v>
+      <c r="E61" s="11">
+        <v>62236453</v>
       </c>
       <c r="F61" s="11">
-        <v>62236453</v>
+        <v>66152607</v>
       </c>
       <c r="G61" s="11">
-        <v>66152607</v>
+        <v>73923228</v>
       </c>
       <c r="H61" s="11">
-        <v>73923228</v>
+        <v>0</v>
       </c>
       <c r="I61" s="11">
         <v>0</v>
@@ -1764,98 +1799,98 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="13"/>
-      <c r="E62" s="13" t="s">
-        <v>13</v>
+      <c r="E62" s="13">
+        <v>37128884</v>
       </c>
       <c r="F62" s="13">
-        <v>37128884</v>
+        <v>77331678</v>
       </c>
       <c r="G62" s="13">
-        <v>77331678</v>
+        <v>85532706</v>
       </c>
       <c r="H62" s="13">
-        <v>85532706</v>
+        <v>89430632</v>
       </c>
       <c r="I62" s="13">
-        <v>89430632</v>
+        <v>227882933</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>13</v>
+      <c r="E63" s="11">
+        <v>25850353</v>
       </c>
       <c r="F63" s="11">
-        <v>25850353</v>
+        <v>40650283</v>
       </c>
       <c r="G63" s="11">
-        <v>40650283</v>
+        <v>56195308</v>
       </c>
       <c r="H63" s="11">
-        <v>56195308</v>
+        <v>124712576</v>
       </c>
       <c r="I63" s="11">
-        <v>124712576</v>
+        <v>159072701</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D64" s="13"/>
-      <c r="E64" s="13" t="s">
-        <v>13</v>
+      <c r="E64" s="13">
+        <v>38947259</v>
       </c>
       <c r="F64" s="13">
-        <v>38947259</v>
+        <v>89237285</v>
       </c>
       <c r="G64" s="13">
-        <v>89237285</v>
+        <v>112324784</v>
       </c>
       <c r="H64" s="13">
-        <v>112324784</v>
+        <v>174934789</v>
       </c>
       <c r="I64" s="13">
-        <v>174934789</v>
+        <v>244144390</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="H65" s="11">
+        <v>176524255</v>
       </c>
       <c r="I65" s="11">
-        <v>176524255</v>
+        <v>241968595</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -1867,16 +1902,16 @@
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F66" s="13">
+        <v>62980000</v>
       </c>
       <c r="G66" s="13">
-        <v>62980000</v>
+        <v>55577500</v>
       </c>
       <c r="H66" s="13">
-        <v>55577500</v>
+        <v>0</v>
       </c>
       <c r="I66" s="13">
         <v>0</v>
@@ -1902,8 +1937,8 @@
         <v>35</v>
       </c>
       <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
-        <v>13</v>
+      <c r="E68" s="11">
+        <v>0</v>
       </c>
       <c r="F68" s="11">
         <v>0</v>
@@ -1914,80 +1949,80 @@
       <c r="H68" s="11">
         <v>0</v>
       </c>
-      <c r="I68" s="11">
-        <v>0</v>
+      <c r="I68" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D69" s="13"/>
-      <c r="E69" s="13" t="s">
-        <v>13</v>
+      <c r="E69" s="13">
+        <v>52311093</v>
       </c>
       <c r="F69" s="13">
-        <v>52311093</v>
+        <v>71302769</v>
       </c>
       <c r="G69" s="13">
-        <v>71302769</v>
+        <v>91638508</v>
       </c>
       <c r="H69" s="13">
-        <v>91638508</v>
+        <v>151371887</v>
       </c>
       <c r="I69" s="13">
-        <v>151371887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>13</v>
+      <c r="E70" s="11">
+        <v>31497281</v>
       </c>
       <c r="F70" s="11">
-        <v>31497281</v>
+        <v>42340909</v>
       </c>
       <c r="G70" s="11">
-        <v>42340909</v>
+        <v>82524664</v>
       </c>
       <c r="H70" s="11">
-        <v>82524664</v>
+        <v>132784173</v>
       </c>
       <c r="I70" s="11">
-        <v>132784173</v>
+        <v>159759307</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D71" s="13"/>
-      <c r="E71" s="13" t="s">
-        <v>13</v>
+      <c r="E71" s="13">
+        <v>88208333</v>
       </c>
       <c r="F71" s="13">
-        <v>88208333</v>
+        <v>0</v>
       </c>
       <c r="G71" s="13">
-        <v>0</v>
+        <v>148163043</v>
       </c>
       <c r="H71" s="13">
-        <v>148163043</v>
+        <v>153898291</v>
       </c>
       <c r="I71" s="13">
-        <v>153898291</v>
+        <v>202878261</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -2010,8 +2045,8 @@
         <v>35</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
-        <v>13</v>
+      <c r="E73" s="11">
+        <v>0</v>
       </c>
       <c r="F73" s="11">
         <v>0</v>
@@ -2022,8 +2057,8 @@
       <c r="H73" s="11">
         <v>0</v>
       </c>
-      <c r="I73" s="11">
-        <v>0</v>
+      <c r="I73" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -2108,17 +2143,17 @@
         <v>30</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>13</v>
+      <c r="E80" s="11">
+        <v>-2942</v>
       </c>
       <c r="F80" s="11">
-        <v>-2942</v>
+        <v>-17532</v>
       </c>
       <c r="G80" s="11">
-        <v>-17532</v>
+        <v>-8563</v>
       </c>
       <c r="H80" s="11">
-        <v>-8563</v>
+        <v>0</v>
       </c>
       <c r="I80" s="11">
         <v>0</v>
@@ -2126,98 +2161,98 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="13"/>
-      <c r="E81" s="13" t="s">
-        <v>13</v>
+      <c r="E81" s="13">
+        <v>-236888</v>
       </c>
       <c r="F81" s="13">
-        <v>-236888</v>
+        <v>-399087</v>
       </c>
       <c r="G81" s="13">
-        <v>-399087</v>
+        <v>-464275</v>
       </c>
       <c r="H81" s="13">
-        <v>-464275</v>
+        <v>-573069</v>
       </c>
       <c r="I81" s="13">
-        <v>-573069</v>
+        <v>-3284908</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>13</v>
+      <c r="E82" s="11">
+        <v>-283862</v>
       </c>
       <c r="F82" s="11">
-        <v>-283862</v>
+        <v>-545709</v>
       </c>
       <c r="G82" s="11">
-        <v>-545709</v>
+        <v>-917859</v>
       </c>
       <c r="H82" s="11">
-        <v>-917859</v>
+        <v>-2035348</v>
       </c>
       <c r="I82" s="11">
-        <v>-2035348</v>
+        <v>-3464934</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D83" s="13"/>
-      <c r="E83" s="13" t="s">
-        <v>13</v>
+      <c r="E83" s="13">
+        <v>-476202</v>
       </c>
       <c r="F83" s="13">
-        <v>-476202</v>
+        <v>-1273788</v>
       </c>
       <c r="G83" s="13">
-        <v>-1273788</v>
+        <v>-1850466</v>
       </c>
       <c r="H83" s="13">
-        <v>-1850466</v>
+        <v>-4102540</v>
       </c>
       <c r="I83" s="13">
-        <v>-4102540</v>
+        <v>-1749220</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="H84" s="11">
+        <v>-433872</v>
       </c>
       <c r="I84" s="11">
-        <v>-433872</v>
+        <v>-1851379</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -2229,16 +2264,16 @@
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F85" s="13">
+        <v>-6298</v>
       </c>
       <c r="G85" s="13">
-        <v>-6298</v>
+        <v>-22231</v>
       </c>
       <c r="H85" s="13">
-        <v>-22231</v>
+        <v>0</v>
       </c>
       <c r="I85" s="13">
         <v>0</v>
@@ -2251,19 +2286,19 @@
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15">
-        <v>0</v>
+        <v>-999894</v>
       </c>
       <c r="F86" s="15">
-        <v>-999894</v>
+        <v>-2242414</v>
       </c>
       <c r="G86" s="15">
-        <v>-2242414</v>
+        <v>-3263394</v>
       </c>
       <c r="H86" s="15">
-        <v>-3263394</v>
+        <v>-7144829</v>
       </c>
       <c r="I86" s="15">
-        <v>-7144829</v>
+        <v>-10350441</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -2286,8 +2321,8 @@
         <v>30</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
-        <v>13</v>
+      <c r="E88" s="11">
+        <v>0</v>
       </c>
       <c r="F88" s="11">
         <v>0</v>
@@ -2298,80 +2333,80 @@
       <c r="H88" s="11">
         <v>0</v>
       </c>
-      <c r="I88" s="11">
-        <v>0</v>
+      <c r="I88" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D89" s="13"/>
-      <c r="E89" s="13" t="s">
-        <v>13</v>
+      <c r="E89" s="13">
+        <v>-820511</v>
       </c>
       <c r="F89" s="13">
-        <v>-820511</v>
+        <v>-185204</v>
       </c>
       <c r="G89" s="13">
-        <v>-185204</v>
+        <v>-64747</v>
       </c>
       <c r="H89" s="13">
-        <v>-64747</v>
+        <v>-198996</v>
       </c>
       <c r="I89" s="13">
-        <v>-198996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
-        <v>13</v>
+      <c r="E90" s="11">
+        <v>-51673</v>
       </c>
       <c r="F90" s="11">
-        <v>-51673</v>
+        <v>-1312</v>
       </c>
       <c r="G90" s="11">
-        <v>-1312</v>
+        <v>-13182</v>
       </c>
       <c r="H90" s="11">
-        <v>-13182</v>
+        <v>-13761</v>
       </c>
       <c r="I90" s="11">
-        <v>-13761</v>
+        <v>-172158</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D91" s="13"/>
-      <c r="E91" s="13" t="s">
-        <v>13</v>
+      <c r="E91" s="13">
+        <v>-1455</v>
       </c>
       <c r="F91" s="13">
-        <v>-1455</v>
+        <v>0</v>
       </c>
       <c r="G91" s="13">
-        <v>0</v>
+        <v>-8910</v>
       </c>
       <c r="H91" s="13">
-        <v>-8910</v>
+        <v>-166715</v>
       </c>
       <c r="I91" s="13">
-        <v>-166715</v>
+        <v>-68182</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -2381,19 +2416,19 @@
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>0</v>
+        <v>-873639</v>
       </c>
       <c r="F92" s="15">
-        <v>-873639</v>
+        <v>-186516</v>
       </c>
       <c r="G92" s="15">
-        <v>-186516</v>
+        <v>-86839</v>
       </c>
       <c r="H92" s="15">
-        <v>-86839</v>
+        <v>-379472</v>
       </c>
       <c r="I92" s="15">
-        <v>-379472</v>
+        <v>-240340</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -2416,8 +2451,8 @@
         <v>30</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>13</v>
+      <c r="E94" s="11">
+        <v>0</v>
       </c>
       <c r="F94" s="11">
         <v>0</v>
@@ -2428,8 +2463,8 @@
       <c r="H94" s="11">
         <v>0</v>
       </c>
-      <c r="I94" s="11">
-        <v>0</v>
+      <c r="I94" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -2462,8 +2497,8 @@
         <v>30</v>
       </c>
       <c r="D96" s="15"/>
-      <c r="E96" s="15" t="s">
-        <v>13</v>
+      <c r="E96" s="15">
+        <v>0</v>
       </c>
       <c r="F96" s="15">
         <v>0</v>
@@ -2471,11 +2506,11 @@
       <c r="G96" s="15">
         <v>0</v>
       </c>
-      <c r="H96" s="15">
-        <v>0</v>
+      <c r="H96" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -2486,8 +2521,8 @@
         <v>30</v>
       </c>
       <c r="D97" s="17"/>
-      <c r="E97" s="17" t="s">
-        <v>13</v>
+      <c r="E97" s="17">
+        <v>0</v>
       </c>
       <c r="F97" s="17">
         <v>0</v>
@@ -2509,19 +2544,19 @@
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15">
-        <v>0</v>
+        <v>-1873533</v>
       </c>
       <c r="F98" s="15">
-        <v>-1873533</v>
+        <v>-2428930</v>
       </c>
       <c r="G98" s="15">
-        <v>-2428930</v>
+        <v>-3350233</v>
       </c>
       <c r="H98" s="15">
-        <v>-3350233</v>
+        <v>-7524301</v>
       </c>
       <c r="I98" s="15">
-        <v>-7524301</v>
+        <v>-10590781</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -2606,17 +2641,17 @@
         <v>30</v>
       </c>
       <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
-        <v>13</v>
+      <c r="E105" s="11">
+        <v>9692</v>
       </c>
       <c r="F105" s="11">
-        <v>9692</v>
+        <v>68731</v>
       </c>
       <c r="G105" s="11">
-        <v>68731</v>
+        <v>28990</v>
       </c>
       <c r="H105" s="11">
-        <v>28990</v>
+        <v>0</v>
       </c>
       <c r="I105" s="11">
         <v>0</v>
@@ -2624,98 +2659,98 @@
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D106" s="13"/>
-      <c r="E106" s="13" t="s">
-        <v>13</v>
+      <c r="E106" s="13">
+        <v>200416</v>
       </c>
       <c r="F106" s="13">
-        <v>200416</v>
+        <v>379411</v>
       </c>
       <c r="G106" s="13">
-        <v>379411</v>
+        <v>398750</v>
       </c>
       <c r="H106" s="13">
-        <v>398750</v>
+        <v>257831</v>
       </c>
       <c r="I106" s="13">
-        <v>257831</v>
+        <v>2726188</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
-        <v>13</v>
+      <c r="E107" s="11">
+        <v>67496</v>
       </c>
       <c r="F107" s="11">
-        <v>67496</v>
+        <v>229248</v>
       </c>
       <c r="G107" s="11">
-        <v>229248</v>
+        <v>387558</v>
       </c>
       <c r="H107" s="11">
-        <v>387558</v>
+        <v>518142</v>
       </c>
       <c r="I107" s="11">
-        <v>518142</v>
+        <v>232870</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D108" s="13"/>
-      <c r="E108" s="13" t="s">
-        <v>13</v>
+      <c r="E108" s="13">
+        <v>217215</v>
       </c>
       <c r="F108" s="13">
-        <v>217215</v>
+        <v>866836</v>
       </c>
       <c r="G108" s="13">
-        <v>866836</v>
+        <v>978546</v>
       </c>
       <c r="H108" s="13">
-        <v>978546</v>
+        <v>1657013</v>
       </c>
       <c r="I108" s="13">
-        <v>1657013</v>
+        <v>411702</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="H109" s="11">
+        <v>264811</v>
       </c>
       <c r="I109" s="11">
-        <v>264811</v>
+        <v>290527</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -2727,10 +2762,10 @@
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F110" s="13">
+        <v>0</v>
       </c>
       <c r="G110" s="13">
         <v>0</v>
@@ -2749,19 +2784,19 @@
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15">
-        <v>0</v>
+        <v>494819</v>
       </c>
       <c r="F111" s="15">
-        <v>494819</v>
+        <v>1544226</v>
       </c>
       <c r="G111" s="15">
-        <v>1544226</v>
+        <v>1793844</v>
       </c>
       <c r="H111" s="15">
-        <v>1793844</v>
+        <v>2697797</v>
       </c>
       <c r="I111" s="15">
-        <v>2697797</v>
+        <v>3661287</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -2784,8 +2819,8 @@
         <v>30</v>
       </c>
       <c r="D113" s="11"/>
-      <c r="E113" s="11" t="s">
-        <v>13</v>
+      <c r="E113" s="11">
+        <v>0</v>
       </c>
       <c r="F113" s="11">
         <v>0</v>
@@ -2796,80 +2831,80 @@
       <c r="H113" s="11">
         <v>0</v>
       </c>
-      <c r="I113" s="11">
-        <v>0</v>
+      <c r="I113" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D114" s="13"/>
-      <c r="E114" s="13" t="s">
-        <v>13</v>
+      <c r="E114" s="13">
+        <v>736581</v>
       </c>
       <c r="F114" s="13">
-        <v>736581</v>
+        <v>177941</v>
       </c>
       <c r="G114" s="13">
-        <v>177941</v>
+        <v>55666</v>
       </c>
       <c r="H114" s="13">
-        <v>55666</v>
+        <v>159604</v>
       </c>
       <c r="I114" s="13">
-        <v>159604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D115" s="11"/>
-      <c r="E115" s="11" t="s">
-        <v>13</v>
+      <c r="E115" s="11">
+        <v>12046</v>
       </c>
       <c r="F115" s="11">
-        <v>12046</v>
+        <v>551</v>
       </c>
       <c r="G115" s="11">
-        <v>551</v>
+        <v>5221</v>
       </c>
       <c r="H115" s="11">
-        <v>5221</v>
+        <v>4696</v>
       </c>
       <c r="I115" s="11">
-        <v>4696</v>
+        <v>12364</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D116" s="13"/>
-      <c r="E116" s="13" t="s">
-        <v>13</v>
+      <c r="E116" s="13">
+        <v>662</v>
       </c>
       <c r="F116" s="13">
-        <v>662</v>
+        <v>0</v>
       </c>
       <c r="G116" s="13">
-        <v>0</v>
+        <v>4721</v>
       </c>
       <c r="H116" s="13">
-        <v>4721</v>
+        <v>22426</v>
       </c>
       <c r="I116" s="13">
-        <v>22426</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
@@ -2879,19 +2914,19 @@
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15">
-        <v>0</v>
+        <v>749289</v>
       </c>
       <c r="F117" s="15">
-        <v>749289</v>
+        <v>178492</v>
       </c>
       <c r="G117" s="15">
-        <v>178492</v>
+        <v>65608</v>
       </c>
       <c r="H117" s="15">
-        <v>65608</v>
+        <v>186726</v>
       </c>
       <c r="I117" s="15">
-        <v>186726</v>
+        <v>14175</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
@@ -2914,8 +2949,8 @@
         <v>30</v>
       </c>
       <c r="D119" s="11"/>
-      <c r="E119" s="11" t="s">
-        <v>13</v>
+      <c r="E119" s="11">
+        <v>0</v>
       </c>
       <c r="F119" s="11">
         <v>0</v>
@@ -2926,8 +2961,8 @@
       <c r="H119" s="11">
         <v>0</v>
       </c>
-      <c r="I119" s="11">
-        <v>0</v>
+      <c r="I119" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
@@ -2959,19 +2994,19 @@
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
-        <v>0</v>
+        <v>1244108</v>
       </c>
       <c r="F121" s="15">
-        <v>1244108</v>
+        <v>1722718</v>
       </c>
       <c r="G121" s="15">
-        <v>1722718</v>
+        <v>1859452</v>
       </c>
       <c r="H121" s="15">
-        <v>1859452</v>
+        <v>2884523</v>
       </c>
       <c r="I121" s="15">
-        <v>2884523</v>
+        <v>3675462</v>
       </c>
     </row>
   </sheetData>
